--- a/graph_generation/results/hermes_llama2/level_9/k_0.xlsx
+++ b/graph_generation/results/hermes_llama2/level_9/k_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>prompt</t>
   </si>
@@ -29,330 +29,334 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 8? Return True or False in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 1 0 0 0 1 0 1 1 0
+ B 1 0 0 1 0 1 0 0 1 1
+ C 0 0 0 1 1 0 1 0 1 0
+ D 0 1 1 0 1 0 0 1 1 0
+ E 0 0 1 1 0 0 0 1 1 1
+ F 1 1 0 0 0 0 1 0 0 0
+ G 0 0 1 0 0 1 0 0 0 0
+ H 1 0 0 1 1 0 0 0 0 0
+ I 1 1 1 1 1 0 0 0 0 1
+ J 0 1 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 1 0 0 1 0 1 0 0 1
+ B 1 0 1 0 0 1 0 0 0 0
+ C 0 1 0 0 0 1 0 1 0 1
+ D 0 0 0 0 0 0 0 1 0 1
+ E 1 0 0 0 0 1 1 0 1 1
+ F 0 1 1 0 1 0 1 0 0 1
+ G 1 0 0 0 1 1 0 1 0 0
+ H 0 0 1 1 0 0 1 0 1 0
+ I 0 0 0 0 1 0 0 1 0 0
+ J 1 0 1 1 1 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 0 0 0 0 0 0 1 0
+ B 0 0 0 0 1 0 1 0 0 1
+ C 0 0 0 0 0 0 0 0 1 0
+ D 0 0 0 0 0 0 1 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 1 1 1
+ G 0 1 0 1 0 0 0 1 0 0
+ H 0 0 0 0 0 1 1 0 0 0
+ I 1 0 1 0 0 1 0 0 0 0
+ J 0 1 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 1 1 1 1 1 0 0 1 0
+ B 1 0 0 0 1 0 0 1 0 1
+ C 1 0 0 0 0 0 1 0 0 0
+ D 1 0 0 0 0 0 0 0 1 0
+ E 1 1 0 0 0 0 0 0 1 0
+ F 1 0 0 0 0 0 1 1 0 1
+ G 0 0 1 0 0 1 0 0 1 1
+ H 0 1 0 0 0 1 0 0 0 1
+ I 1 0 0 1 1 0 1 0 0 1
+ J 0 1 0 0 0 1 1 1 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from 7? Return True or False in response.
+   A B C D E F G H I J
+ A 0 1 0 0 0 0 0 0 1 1
+ B 1 0 1 0 1 0 0 1 0 0
+ C 0 1 0 1 0 1 0 0 0 1
+ D 0 0 1 0 1 1 1 1 1 0
+ E 0 1 0 1 0 1 0 0 1 0
+ F 0 0 1 1 1 0 1 0 0 0
+ G 0 0 0 1 0 1 0 1 0 0
+ H 0 1 0 1 0 0 1 0 1 0
+ I 1 0 0 1 1 0 0 1 0 0
+ J 1 0 1 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 1 0 0 0 1 1 1 1
+ B 0 0 0 0 0 0 1 0 1 1
+ C 1 0 0 1 0 1 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 1
+ E 0 0 0 1 0 1 1 1 0 0
+ F 0 0 1 0 1 0 1 1 1 0
+ G 1 1 0 0 1 1 0 1 0 0
+ H 1 0 0 0 1 1 1 0 1 0
+ I 1 1 0 0 0 1 0 1 0 0
+ J 1 1 0 1 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from 4? Return True or False in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 1 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 1 1 0 0
- F 0 0 0 0 1 0 1 1 0 1
- G 0 0 0 0 1 1 0 0 0 0
- H 0 0 0 0 1 1 0 0 1 1
- I 0 1 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 1 0 1 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 6? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 1 0 0 1 1 1
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 1 0 1 0 0 0
- D 0 0 1 0 1 0 1 0 1 0
- E 1 0 1 1 0 1 0 1 0 1
- F 0 0 0 0 1 0 1 0 1 1
- G 0 0 1 1 0 1 0 1 0 0
- H 1 0 0 0 1 0 1 0 0 0
- I 1 0 0 1 0 1 0 0 0 1
- J 1 0 0 0 1 1 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 5? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 1 1 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0
+ B 1 0 1 0 0 0 1 1 0 0
+ C 0 1 0 1 1 0 0 0 0 1
+ D 0 0 1 0 1 0 0 1 0 1
+ E 0 0 1 1 0 1 0 0 0 0
  F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 0
- H 0 1 0 0 0 0 1 0 0 0
- I 0 1 0 0 0 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ G 0 1 0 0 0 1 0 0 0 0
+ H 0 1 0 1 0 0 0 0 1 1
+ I 0 0 0 0 0 0 0 1 0 1
+ J 0 0 1 1 0 0 0 1 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+   A B C D E F G H I J
+ A 0 0 0 0 0 1 1 0 1 0
+ B 0 0 1 1 0 1 0 0 1 0
+ C 0 1 0 1 1 0 0 1 0 0
+ D 0 1 1 0 0 1 0 1 1 1
+ E 0 0 1 0 0 0 0 0 1 0
+ F 1 1 0 1 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 1 0 0
+ H 0 0 1 1 0 0 1 0 0 0
+ I 1 1 0 1 1 0 0 0 0 0
+ J 0 0 0 1 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
 Is the following a valid eulerian graph, if traversal is started from 7? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 1 0 0 1 1 0 1 0
- B 1 0 1 1 0 0 1 1 1 0
- C 1 1 0 1 0 0 0 1 0 0
- D 0 1 1 0 1 0 0 0 0 1
- E 0 0 0 1 0 1 0 0 0 0
- F 1 0 0 0 1 0 1 0 1 0
- G 1 1 0 0 0 1 0 1 0 0
- H 0 1 1 0 0 0 1 0 1 0
- I 1 1 0 0 0 1 0 1 0 0
- J 0 0 0 1 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 1? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 1 1 0 1 0 0 1
- B 1 0 1 0 0 0 1 1 1 1
- C 0 1 0 1 0 0 0 0 0 0
- D 1 0 1 0 1 0 0 0 0 0
- E 1 0 0 1 0 1 0 0 1 0
- F 0 0 0 0 1 0 1 0 0 0
- G 1 1 0 0 0 1 0 1 0 0
- H 0 1 0 0 0 0 1 0 0 0
- I 0 1 0 0 1 0 0 0 0 0
- J 1 1 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 1? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 1 1 0 0 1
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 1 0 1 0 1 1 1 1 0
- F 0 1 0 0 1 0 1 1 0 0
- G 0 1 0 0 1 1 0 1 0 0
- H 0 0 0 0 1 1 1 0 1 0
- I 0 0 0 0 1 0 0 1 0 1
- J 0 1 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 6? Return True or False in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 1 1
- F 0 0 0 0 1 0 1 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 1 1
  G 0 0 0 0 0 1 0 1 0 0
  H 0 0 0 0 0 0 1 0 1 0
- I 0 0 0 0 1 0 0 1 0 0
- J 0 0 0 0 1 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 7? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 1 0 0 0 0 0 0 1
- B 1 0 1 0 0 1 1 0 1 0
- C 1 1 0 1 0 1 0 0 0 0
- D 0 0 1 0 1 0 1 1 0 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 1 1 0 1 0 1 0 0 0
- G 0 1 0 1 0 1 0 1 0 0
- H 0 0 0 1 0 0 1 0 0 0
- I 0 1 0 0 0 0 0 0 0 1
- J 1 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 1? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 1 0 1 0 0 0
- B 1 0 1 0 1 1 0 1 0 1
+ I 0 0 0 0 0 1 0 1 0 0
+ J 0 0 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+   A B C D E F G H I J
+ A 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 1
  C 0 1 0 1 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 0 0
- E 1 1 0 1 0 1 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1
- G 1 0 0 0 0 1 0 1 1 0
- H 0 1 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 1 0 0 1
- J 0 1 0 0 0 1 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-Is the following a valid eulerian graph, if traversal is started from 6? Return True or False in response.
-   A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 1
- C 0 1 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 0 0 0
  E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
+ F 0 1 0 0 1 0 1 0 1 0
  G 0 0 0 0 0 1 0 1 0 0
  H 0 0 0 0 0 0 1 0 1 0
- I 0 0 0 0 0 0 0 1 0 1
+ I 0 0 0 0 0 1 0 1 0 1
  J 0 1 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
+    <t>This is not a valid eulerian graph</t>
+  </si>
+  <si>
     <t>This is a valid eulerian graph</t>
   </si>
   <si>
     <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. Let's find the degree of each vertex:
-A: 2
-B: 3
-C: 2
-D: 3
-E: 4
-F: 3
-G: 2
-H: 3
-I: 2
-J: 2
-There are 6 vertices with an odd degree (B, D, F, G, H, J) and 4 vertices with an even degree (A, C, E, I). Since there are more than 2 vertices with an odd degree, the given graph is not an Eulerian graph.</t>
+A: degree 3 (connected to B, C, I)
+B: degree 3 (connected to A, D, E)
+C: degree 2 (connected to A, I)
+D: degree 3 (connected to B, E, H)
+E: degree 4 (connected to B, D, F, I)
+F: degree 2 (connected to E, J)
+G: degree 2 (connected to E, H)
+H: degree 3 (connected to D, G, I)
+I: degree 4 (connected to A, D, E, H)
+J: degree 2 (connected to F, I)
+There are 6 vertices with an odd degree (A, B, C, D, E, H), which is not equal to 0 or 2. Therefore, the given graph is not an Eulerian graph.</t>
+  </si>
+  <si>
+    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. Let's find the degree of each vertex:
+A: degree 3 (connected to B, C, and E)
+B: degree 2 (connected to A and E)
+C: degree 2 (connected to A and F)
+D: degree 1 (connected to G)
+E: degree 4 (connected to A, F, G, and H)
+F: degree 3 (connected to C, E, and I)
+G: degree 2 (connected to D and E)
+H: degree 3 (connected to E, I, and J)
+I: degree 2 (connected to F and H)
+J: degree 1 (connected to H)
+There are 4 vertices with an odd degree (A, C, E, and H). Since there are more than 2 vertices with an odd degree, the given graph is not an Eulerian graph.</t>
+  </si>
+  <si>
+    <t>To determine if the given graph is an Eulerian graph, we need to check if all vertices have an even degree. An Eulerian graph is a graph that has exactly 0 or 2 vertices with an odd degree.
+Let's find the degree of each vertex:
+A: degree 2
+B: degree 3
+C: degree 2
+D: degree 1
+E: degree 2
+F: degree 3
+G: degree 4
+H: degree 2
+I: degree 2
+J: degree 1
+There are 4 vertices with an odd degree (B, F, G, and J), which means the graph is not an Eulerian graph. Therefore, the answer is False.</t>
+  </si>
+  <si>
+    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. Let's find the degree of each vertex:
+A: degree 3 (connected to B, C, I)
+B: degree 2 (connected to A, E)
+C: degree 2 (connected to A, I)
+D: degree 1 (connected to G)
+E: degree 3 (connected to B, F, G)
+F: degree 3 (connected to E, G, I)
+G: degree 2 (connected to D, E)
+H: degree 2 (connected to I, J)
+I: degree 4 (connected to A, C, F, H)
+J: degree 3 (connected to H, I, G)
+Now let's count the odd degrees:
+- A: 3
+- C: 2
+- E: 3
+- F: 3
+- I: 4
+- J: 3
+There are 5 vertices with an odd degree, so the graph is not an Eulerian graph.</t>
   </si>
   <si>
     <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
 Let's find the degree of each vertex:
-A: 3 (connected to B, C, I)
-B: 2 (connected to A, E)
-C: 3 (connected to A, D, I)
-D: 3 (connected to C, E, G)
-E: 4 (connected to D, F, I, J)
-F: 2 (connected to E, J)
-G: 3 (connected to D, E, H)
-H: 2 (connected to G, I)
-I: 4 (connected to A, C, D, E)
-J: 3 (connected to E, F, I)
-Now let's check for odd degrees:
-A: 3 (odd)
-B: 2 (even)
-C: 3 (odd)
-D: 3 (odd)
-E: 4 (even)
-F: 2 (even)
-G: 3 (odd)
-H: 2 (even)
-I: 4 (even)
-J: 3 (odd)
-There are 5 vertices with an odd degree (A, C, D, G, J). Since there are not exactly 0 or 2 vertices with an odd degree, the given graph is not an Eulerian graph.</t>
+A: degree 2
+B: degree 3
+C: degree 3
+D: degree 4
+E: degree 3
+F: degree 4
+G: degree 2
+H: degree 3
+I: degree 2
+J: degree 1
+There are 6 vertices with odd degree (B, C, E, F, G, H) and 4 vertices with even degree (A, D, I, J). Since there are more than 2 vertices with odd degree, the given graph is not an Eulerian graph.
+Return False.</t>
+  </si>
+  <si>
+    <t>To determine if the given graph is an Eulerian graph, we need to check if all vertices have an even degree. An Eulerian graph is a graph that has exactly 0 or 2 vertices with an odd degree.
+Let's find the degree of each vertex:
+A: degree 3 (connected to B, C, and H)
+B: degree 2 (connected to A and E)
+C: degree 2 (connected to A and I)
+D: degree 3 (connected to E, F, and J)
+E: degree 4 (connected to B, D, F, and G)
+F: degree 4 (connected to D, E, G, and H)
+G: degree 4 (connected to E, F, H, and I)
+H: degree 4 (connected to F, G, I, and J)
+I: degree 2 (connected to C and G)
+J: degree 1 (connected to D)
+There are 6 vertices with an odd degree (A, B, C, D, E, and J), which means the graph is not an Eulerian graph.
+Therefore, the response is False.</t>
   </si>
   <si>
     <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
 Let's find the degree of each vertex:
-A: 2
-B: 3
-C: 2
-D: 2
-E: 3
-F: 2
-G: 2
-H: 2
-I: 2
-J: 1
-There are 6 vertices with an odd degree (A, B, C, D, E, F). Since there are more than 2 vertices with an odd degree, the given graph is not an Eulerian graph.</t>
+A: degree 2
+B: degree 3
+C: degree 3
+D: degree 3
+E: degree 3
+F: degree 2
+G: degree 2
+H: degree 3
+I: degree 2
+J: degree 3
+There are 6 vertices with odd degree (B, C, D, E, H, J). Since there are more than 2 vertices with odd degree, the given graph is not an Eulerian graph.</t>
+  </si>
+  <si>
+    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. Let's find the degree of each vertex:
+A: degree 2
+B: degree 3
+C: degree 3
+D: degree 4
+E: degree 2
+F: degree 3
+G: degree 2
+H: degree 3
+I: degree 4
+J: degree 1
+There are 6 vertices with an odd degree (B, C, D, F, G, I), which is not equal to 0 or 2. Therefore, the given graph is not an Eulerian graph.</t>
   </si>
   <si>
     <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
 Let's find the degree of each vertex:
-A: 3 (connected to B, C, H)
-B: 4 (connected to A, D, E, F)
-C: 3 (connected to A, G, I)
-D: 3 (connected to B, E, F)
-E: 2 (connected to D, F)
-F: 4 (connected to B, D, E, G)
-G: 2 (connected to F, I)
-H: 3 (connected to A, D, I)
-I: 3 (connected to C, G, H)
-J: 1 (connected to I)
-Vertices with odd degree: A, C, D, F, G, H, I
-There are 7 vertices with odd degree, which is not equal to 0 or 2. Therefore, the given graph is not an Eulerian graph.</t>
+A: degree 0
+B: degree 1
+C: degree 1
+D: degree 1
+E: degree 2
+F: degree 3
+G: degree 2
+H: degree 2
+I: degree 2
+J: degree 0
+There are 6 vertices with odd degree (F, G, H, I, E, J). Since there are more than 2 vertices with odd degree, the given graph is not an Eulerian graph.</t>
   </si>
   <si>
     <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
 Let's find the degree of each vertex:
-A: 3 (connected to B, C, and E)
-B: 3 (connected to A, D, and E)
-C: 2 (connected to A and G)
-D: 2 (connected to B and F)
-E: 4 (connected to A, B, F, and I)
-F: 1 (connected to D)
-G: 2 (connected to C and I)
-H: 1 (connected to I)
-I: 2 (connected to G and E)
-J: 0 (not connected to any other vertex)
-Vertices with odd degree: A, E, and I.
-Since there are exactly 3 vertices with an odd degree, the graph is not an Eulerian graph.</t>
-  </si>
-  <si>
-    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
-Let's find the degree of each vertex:
-A: 2
-B: 4
-C: 2
-D: 2
-E: 5
-F: 3
-G: 2
-H: 3
-I: 2
-J: 1
-There are 6 vertices with an odd degree (E, F, H, I, G, J). Since there are more than 2 vertices with an odd degree, the given graph is not an Eulerian graph.</t>
-  </si>
-  <si>
-    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. Let's find the degree of each vertex:
-A: 2
-B: 2
-C: 2
-D: 3
-E: 4
-F: 2
-G: 2
-H: 3
-I: 2
-J: 2
-There are 6 vertices with an odd degree (D, H, F, G, I, J), which is not exactly 0 or 2. Therefore, the given graph is not an Eulerian graph.</t>
-  </si>
-  <si>
-    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
-Let's find the degree of each vertex:
-A: 2
-B: 3
-C: 2
-D: 3
-E: 1
-F: 3
-G: 2
-H: 1
-I: 1
-J: 1
-There are 6 vertices with odd degree (B, D, F, G, H, J). Since there are more than 2 vertices with odd degree, the given graph is not an Eulerian graph.</t>
-  </si>
-  <si>
-    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
-Let's find the degree of each vertex:
-A: 3 (connected to B, D, H)
-B: 4 (connected to A, C, E, F)
-C: 2 (connected to B, I)
-D: 2 (connected to A, G)
-E: 4 (connected to B, D, F, I)
-F: 3 (connected to B, E, J)
-G: 2 (connected to D, H)
-H: 3 (connected to G, I, J)
-I: 2 (connected to C, E)
-J: 2 (connected to F, H)
-Now let's count the odd degrees:
-Odd degrees: 3 (A, E, H)
-Since there are exactly 3 vertices with an odd degree, the graph is an Eulerian graph.</t>
-  </si>
-  <si>
-    <t>To determine if the given graph is an Eulerian graph, we need to check if it has exactly 0 or 2 vertices with an odd degree. A vertex is odd if its degree is not divisible by 2.
-Let's find the degree of each vertex:
-A: 2
-B: 3
-C: 2
-D: 3
-E: 3
-F: 2
-G: 2
-H: 3
-I: 2
-J: 2
-There are 6 vertices with an odd degree (A, B, C, D, H, and J) and 4 vertices with an even degree (E, F, G, and I). Since there are more than 2 vertices with an odd degree, the given graph is not an Eulerian graph.
-Return False.</t>
+A: degree 2
+B: degree 3
+C: degree 2
+D: degree 2
+E: degree 2
+F: degree 4
+G: degree 2
+H: degree 2
+I: degree 2
+J: degree 2
+There are 8 vertices with odd degree (B, C, D, E, F, G, H, I) and 2 vertices with even degree (A, J). Since there are exactly 2 vertices with an odd degree, the graph is an Eulerian graph.</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -744,10 +748,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -758,10 +762,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -772,10 +776,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -786,10 +790,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -797,13 +801,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -814,10 +818,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -825,13 +829,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -842,10 +846,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -853,10 +857,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -867,13 +871,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
